--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko\Desktop\NLP\ul-fri-nlp-course-project-2024-2025-optimus-prime\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E6389C-86F4-4920-9F9E-BFC4560A76D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AED691A-54BB-4603-A97C-B28AFD5037AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2D5915A8-17AC-41E8-AA54-7F2879E0DCA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D25212F-C2B0-401F-BCD2-62CBD1F0FD72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>Title</t>
   </si>
@@ -101,16 +101,16 @@
     <t>IUST_PersonReId: A New Domain in Person Re-Identification Datasets</t>
   </si>
   <si>
-    <t xml:space="preserve">Rank broad baseline </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank specific baseline </t>
-  </si>
-  <si>
-    <t>Rank specific current</t>
-  </si>
-  <si>
-    <t>Rank broad current</t>
+    <t>Baseline, specific question</t>
+  </si>
+  <si>
+    <t>Baseline, broad question</t>
+  </si>
+  <si>
+    <t>Current, specific question</t>
+  </si>
+  <si>
+    <t>Current, broad question</t>
   </si>
   <si>
     <t>NOT FOUND</t>
@@ -484,20 +484,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1900CC72-790B-45FD-9E46-CE117DF13918}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E0D2F2-933D-441D-B898-B936209934A2}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="108.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="116.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
@@ -527,6 +527,12 @@
       <c r="C2" t="s">
         <v>25</v>
       </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -537,6 +543,12 @@
       </c>
       <c r="C3">
         <v>3</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -549,6 +561,12 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -560,6 +578,12 @@
       <c r="C5">
         <v>5</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -571,6 +595,12 @@
       <c r="C6">
         <v>3</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -582,6 +612,12 @@
       <c r="C7">
         <v>2</v>
       </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -593,6 +629,12 @@
       <c r="C8">
         <v>5</v>
       </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -604,6 +646,12 @@
       <c r="C9">
         <v>3</v>
       </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -615,6 +663,12 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -626,6 +680,12 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -637,6 +697,12 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -648,6 +714,12 @@
       <c r="C13">
         <v>3</v>
       </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -659,6 +731,12 @@
       <c r="C14">
         <v>4</v>
       </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -670,6 +748,12 @@
       <c r="C15" t="s">
         <v>25</v>
       </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -681,8 +765,14 @@
       <c r="C16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -692,8 +782,14 @@
       <c r="C17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -703,8 +799,14 @@
       <c r="C18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -714,8 +816,14 @@
       <c r="C19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -725,8 +833,14 @@
       <c r="C20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -735,6 +849,12 @@
       </c>
       <c r="C21">
         <v>11</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
